--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N2">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q2">
-        <v>2.627525378416666</v>
+        <v>2.744302125722222</v>
       </c>
       <c r="R2">
-        <v>23.64772840575</v>
+        <v>24.6987191315</v>
       </c>
       <c r="S2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="T2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q3">
         <v>7.397799452749999</v>
@@ -635,10 +635,10 @@
         <v>66.58019507474999</v>
       </c>
       <c r="S3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="T3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N4">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q4">
-        <v>2.875254531944444</v>
+        <v>4.542342805777777</v>
       </c>
       <c r="R4">
-        <v>25.8772907875</v>
+        <v>40.881085252</v>
       </c>
       <c r="S4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="T4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N5">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q5">
-        <v>1.544160529361111</v>
+        <v>1.309242200333333</v>
       </c>
       <c r="R5">
-        <v>13.89744476425</v>
+        <v>11.783179803</v>
       </c>
       <c r="S5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="T5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
     </row>
   </sheetData>
